--- a/bots/crawl_ch/output/vegi_coop_2022-12-09.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-09.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -6960,7 +6960,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7098,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9012,7 +9012,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9150,7 +9150,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9422,7 +9422,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9698,7 +9698,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10102,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10244,7 +10244,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10309,7 +10309,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10374,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10510,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10579,7 +10579,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10782,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10847,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11742,7 +11742,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11884,7 +11884,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12148,7 +12148,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12499,7 +12499,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12848,7 +12848,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -12990,7 +12990,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13124,7 +13124,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13325,7 +13325,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -13954,7 +13954,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14007,7 +14007,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14145,7 +14145,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14421,7 +14421,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14486,7 +14486,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14533,7 +14533,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14598,7 +14598,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14667,7 +14667,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -14951,7 +14951,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15024,7 +15024,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15361,7 +15361,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15434,7 +15434,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15645,7 +15645,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15714,7 +15714,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15779,7 +15779,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15852,7 +15852,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -15982,7 +15982,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16189,7 +16189,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16254,7 +16254,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16323,7 +16323,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16392,31 +16392,31 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6485134</t>
+          <t>5756740</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zuckerhut ca. 1kg</t>
+          <t>Betty Bossi Nüsslisalat</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-zuckerhut-ca/p/6485134</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756740</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E236" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -16425,67 +16425,71 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>495.00/100kg</t>
+          <t>3.29/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Preis pro 100 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>495.00</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>100kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zuckerhut ca. 1kg 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N236" t="inlineStr"/>
+          <t>Betty Bossi Nüsslisalat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>5756740</t>
+          <t>6485134</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat</t>
+          <t>Naturaplan Bio Zuckerhut ca. 1kg</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756740</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-zuckerhut-ca/p/6485134</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E237" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -16494,47 +16498,43 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>3.29/100g</t>
+          <t>495.00/100kg</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 100 Kilogramm</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>495.00</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>100kg</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Zuckerhut ca. 1kg 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16607,7 +16607,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16822,7 +16822,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16891,7 +16891,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17025,7 +17025,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17090,7 +17090,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17520,7 +17520,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17662,7 +17662,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17735,7 +17735,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17808,7 +17808,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -17877,45 +17877,41 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6375672</t>
+          <t>5689442</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Randen Mix ca. 500g</t>
+          <t>Federkohl</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/naturaplan-bio-pro-specie-rara-randen-mix-ca/p/6375672</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/federkohl/p/5689442</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>0.55/100g</t>
+          <t>0.87/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -17925,7 +17921,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -17935,52 +17931,56 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Randen Mix ca. 500g 2.75 Schweizer Franken</t>
+          <t>Federkohl 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>5689442</t>
+          <t>6375672</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Federkohl</t>
+          <t>Naturaplan Bio Pro Specie Rara Randen Mix ca. 500g</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/federkohl/p/5689442</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/naturaplan-bio-pro-specie-rara-randen-mix-ca/p/6375672</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
       </c>
-      <c r="F258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>0.87/100g</t>
+          <t>0.55/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -17990,7 +17990,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18000,18 +18000,18 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Federkohl 2.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Pro Specie Rara Randen Mix ca. 500g 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18084,7 +18084,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18157,7 +18157,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18226,7 +18226,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18291,7 +18291,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18356,7 +18356,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18425,7 +18425,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18490,7 +18490,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18559,7 +18559,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18632,7 +18632,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18756,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18898,7 +18898,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -18967,7 +18967,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19036,7 +19036,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19178,7 +19178,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19318,7 +19318,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19387,7 +19387,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19456,7 +19456,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19529,7 +19529,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19594,7 +19594,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19667,7 +19667,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19740,7 +19740,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19803,7 +19803,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19872,7 +19872,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -19941,7 +19941,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20014,7 +20014,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20087,7 +20087,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20302,7 +20302,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20367,7 +20367,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20436,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20505,7 +20505,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20570,7 +20570,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20639,7 +20639,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20777,7 +20777,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20842,7 +20842,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21057,7 +21057,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21130,7 +21130,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21203,7 +21203,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21272,7 +21272,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21414,7 +21414,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21487,7 +21487,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21556,7 +21556,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21629,7 +21629,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21694,7 +21694,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21767,7 +21767,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21830,7 +21830,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21899,7 +21899,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -21964,7 +21964,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22171,7 +22171,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22236,7 +22236,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22305,7 +22305,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22378,7 +22378,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22451,7 +22451,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22516,7 +22516,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22589,7 +22589,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22658,7 +22658,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22804,7 +22804,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22877,7 +22877,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23019,7 +23019,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23088,7 +23088,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23234,7 +23234,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23303,7 +23303,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23376,7 +23376,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23445,7 +23445,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23514,7 +23514,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23587,7 +23587,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23652,7 +23652,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23725,7 +23725,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23794,7 +23794,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23857,7 +23857,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23930,7 +23930,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -23995,7 +23995,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24064,7 +24064,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24200,13 +24200,13 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24352,7 +24352,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24417,7 +24417,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24490,7 +24490,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24563,7 +24563,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24705,7 +24705,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24774,7 +24774,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -24991,31 +24991,31 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>4542934</t>
+          <t>3090222</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen</t>
+          <t>Naturaplan Bio Kochäpfel</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-mungbohnen-sprossen/p/4542934</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-kochaepfel/p/3090222</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E359" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -25024,85 +25024,81 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>4.33/1kg</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kochäpfel 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6820929</t>
+          <t>4542934</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Findus Green Cuisine Spinat Sticks</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/findus-green-cuisine-spinat-sticks/p/6820929</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-mungbohnen-sprossen/p/4542934</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E360" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Findus</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.74/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25112,7 +25108,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25122,91 +25118,95 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Findus Green Cuisine Spinat Sticks 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>['frozen']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>3090222</t>
+          <t>6820929</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kochäpfel</t>
+          <t>Findus Green Cuisine Spinat Sticks</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-kochaepfel/p/3090222</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/findus-green-cuisine-spinat-sticks/p/6820929</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E361" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Findus</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>4.33/1kg</t>
+          <t>1.74/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kochäpfel 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr"/>
+          <t>Findus Green Cuisine Spinat Sticks 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>['frozen']</t>
+        </is>
+      </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25271,7 +25271,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25344,7 +25344,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25417,7 +25417,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25490,7 +25490,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25632,7 +25632,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25705,7 +25705,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25774,7 +25774,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25847,7 +25847,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -25920,31 +25920,31 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6875236</t>
+          <t>7024191</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
+          <t>Karma Gemüseplätzli</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/karma-gemueseplaetzli/p/7024191</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E372" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -25953,12 +25953,12 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.84/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -25983,41 +25983,41 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
+          <t>Karma Gemüseplätzli 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>7024191</t>
+          <t>6875236</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Karma Gemüseplätzli</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/karma-gemueseplaetzli/p/7024191</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E373" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -26026,12 +26026,12 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>1.84/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26041,7 +26041,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26056,17 +26056,17 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Karma Gemüseplätzli 3.50 Schweizer Franken</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26131,7 +26131,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26204,7 +26204,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26277,7 +26277,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26342,7 +26342,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26411,7 +26411,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26549,7 +26549,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26622,7 +26622,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26685,7 +26685,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26754,7 +26754,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26827,7 +26827,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -26973,7 +26973,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27046,7 +27046,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27119,7 +27119,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27192,7 +27192,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27265,7 +27265,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27330,7 +27330,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27377,7 +27377,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27442,7 +27442,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27511,7 +27511,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27657,7 +27657,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27730,7 +27730,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -27801,45 +27801,45 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>6508237</t>
+          <t>6764726</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes</t>
+          <t>Prix Garantie Sauerkraut roh</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-gehacktes/p/6508237</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E399" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -27849,7 +27849,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -27859,50 +27859,50 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6674353</t>
+          <t>6508237</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Yolo Schnitzel</t>
+          <t>Garden Gourmet Sensational Gehacktes</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-schnitzel/p/6674353</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-gehacktes/p/6508237</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E400" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -27912,7 +27912,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>1.49/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -27937,55 +27937,55 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Yolo Schnitzel 5.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Gehacktes 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>['frozen', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>6764726</t>
+          <t>6674353</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh</t>
+          <t>Yolo Schnitzel</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-schnitzel/p/6674353</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E401" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>1.49/100g</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28005,22 +28005,22 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
+          <t>Yolo Schnitzel 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['frozen', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28093,7 +28093,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28166,7 +28166,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28239,7 +28239,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28308,7 +28308,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28454,7 +28454,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28523,7 +28523,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28592,7 +28592,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28655,7 +28655,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -28718,45 +28718,41 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>6875235</t>
+          <t>6650440</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch</t>
+          <t>Datteln Gondoles</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-wuerstli-vegetarisch/p/6875235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/datteln-gondoles/p/6650440</t>
         </is>
       </c>
       <c r="D412" t="n">
+        <v>4</v>
+      </c>
+      <c r="E412" t="n">
         <v>5</v>
       </c>
-      <c r="E412" t="n">
-        <v>4</v>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -28766,7 +28762,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -28776,60 +28772,56 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N412" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Datteln Gondoles 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>6875235</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Délicorn Würstli vegetarisch</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-wuerstli-vegetarisch/p/6875235</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -28839,7 +28831,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -28854,55 +28846,55 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>4234715</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E414" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -28912,7 +28904,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -28922,42 +28914,46 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N414" t="inlineStr"/>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>6961417</t>
+          <t>4234715</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hörnlisalat</t>
+          <t>Naturaplan Bio Topinambur</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-hoernlisalat/p/6961417</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E415" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -28966,12 +28962,12 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2.37/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -28981,7 +28977,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -28991,56 +28987,56 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hörnlisalat 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N415" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Topinambur 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>6650440</t>
+          <t>6961417</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Datteln Gondoles</t>
+          <t>Naturaplan Bio Hörnlisalat</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/datteln-gondoles/p/6650440</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-hoernlisalat/p/6961417</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E416" t="n">
-        <v>5</v>
-      </c>
-      <c r="F416" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>2.37/100g</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -29050,7 +29046,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -29060,18 +29056,22 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>Datteln Gondoles 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N416" t="inlineStr"/>
+          <t>Naturaplan Bio Hörnlisalat 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29144,7 +29144,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29217,7 +29217,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29270,7 +29270,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29404,7 +29404,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29471,7 +29471,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29544,7 +29544,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29617,7 +29617,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29759,7 +29759,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29824,7 +29824,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29893,7 +29893,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -29962,7 +29962,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30104,7 +30104,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30177,7 +30177,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30248,7 +30248,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30319,7 +30319,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30392,43 +30392,45 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>6499458</t>
+          <t>6661982</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Betty Bossi Elsa Salat</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-elsa-salat/p/6499458</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>49</v>
+      </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>1.40/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -30438,7 +30440,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -30448,60 +30450,58 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>Betty Bossi Elsa Salat 4.20 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>7038142</t>
+          <t>6499458</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet</t>
+          <t>Betty Bossi Elsa Salat</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-crispy-filet/p/7038142</t>
-        </is>
-      </c>
-      <c r="D437" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-elsa-salat/p/6499458</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr"/>
       <c r="E437" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>3.13/100g</t>
+          <t>1.40/100g</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -30511,7 +30511,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -30521,144 +30521,144 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Elsa Salat 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>7096021</t>
+          <t>7038142</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Cherimoya 1 Stück</t>
+          <t>Garden Gourmet Crispy Filet</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/cherimoya-1-stueck/p/7096021</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-crispy-filet/p/7038142</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>5</v>
-      </c>
-      <c r="F438" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Garden Gourmet</t>
+        </is>
+      </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="H438" t="inlineStr"/>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>3.13/100g</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>Cherimoya 1 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N438" t="inlineStr"/>
+          <t>Garden Gourmet Crispy Filet 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>6661982</t>
+          <t>7096021</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative</t>
+          <t>Cherimoya 1 Stück</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/cherimoya-1-stueck/p/7096021</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>4</v>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>1.99/100g</t>
-        </is>
-      </c>
-      <c r="I439" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J439" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N439" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Cherimoya 1 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30731,7 +30731,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30800,7 +30800,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30869,7 +30869,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -30938,7 +30938,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31076,7 +31076,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31222,7 +31222,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31295,7 +31295,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31368,7 +31368,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31441,7 +31441,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31514,7 +31514,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31577,45 +31577,45 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>6774028</t>
+          <t>6881617</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili</t>
+          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E453" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>festivo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>4.21/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -31625,7 +31625,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -31635,60 +31635,60 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>6881617</t>
+          <t>6774028</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
+          <t>festivo geräucherte Stick Vegan Chili</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E454" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>festivo</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>4.21/100g</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -31698,7 +31698,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -31708,22 +31708,22 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
+          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31792,7 +31792,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31859,7 +31859,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31928,7 +31928,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -31997,7 +31997,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32070,7 +32070,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32143,7 +32143,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32212,7 +32212,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32281,7 +32281,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32354,7 +32354,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32421,7 +32421,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32494,7 +32494,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32547,7 +32547,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32620,7 +32620,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32693,7 +32693,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32762,7 +32762,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32831,7 +32831,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32904,7 +32904,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -32971,7 +32971,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33036,7 +33036,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33109,7 +33109,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33182,7 +33182,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33251,7 +33251,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33316,7 +33316,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33385,7 +33385,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33450,7 +33450,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33523,7 +33523,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -33592,118 +33592,114 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>3090601</t>
+          <t>3091258</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück ca.</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck-ca/p/3091258</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E482" t="n">
         <v>4.5</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>0.76/100g</t>
+          <t>2.20/1ST</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N482" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück ca. 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>6761531</t>
+          <t>3090601</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitan Wings Satay</t>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-seitan-wings-satay/p/6761531</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E483" t="n">
         <v>4.5</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>0.76/100g</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -33713,7 +33709,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -33723,60 +33719,60 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitan Wings Satay 6.95 Schweizer Franken</t>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>7040897</t>
+          <t>6761531</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Köttbullar</t>
+          <t>Outlawz Food Seitan Wings Satay</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-koettbullar/p/7040897</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-seitan-wings-satay/p/6761531</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E484" t="n">
         <v>4.5</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>GREENFORCE</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>5.00/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -33786,7 +33782,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -33801,41 +33797,41 @@
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Köttbullar 3.75 Schweizer Franken</t>
+          <t>Outlawz Food Seitan Wings Satay 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>7040894</t>
+          <t>7040897</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Cevapcici</t>
+          <t>Greenforce Bio vegan Köttbullar</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-cevapcici/p/7040894</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-koettbullar/p/7040897</t>
         </is>
       </c>
       <c r="D485" t="n">
         <v>2</v>
       </c>
       <c r="E485" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -33874,7 +33870,7 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Cevapcici 3.75 Schweizer Franken</t>
+          <t>Greenforce Bio vegan Köttbullar 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N485" t="inlineStr">
@@ -33884,76 +33880,80 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>3091258</t>
+          <t>7040894</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück ca.</t>
+          <t>Greenforce Bio vegan Cevapcici</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck-ca/p/3091258</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-cevapcici/p/7040894</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E486" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>GREENFORCE</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>2.20/1ST</t>
+          <t>5.00/100g</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück ca. 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N486" t="inlineStr"/>
+          <t>Greenforce Bio vegan Cevapcici 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34026,7 +34026,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34099,7 +34099,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34152,7 +34152,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34221,7 +34221,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34294,7 +34294,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34367,7 +34367,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34432,7 +34432,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34505,7 +34505,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34578,7 +34578,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34651,7 +34651,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34722,7 +34722,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34795,7 +34795,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34868,7 +34868,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -34941,7 +34941,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -35012,7 +35012,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -35079,7 +35079,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -35146,7 +35146,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -35203,45 +35203,45 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>6974165</t>
+          <t>5756805</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>The Green Mountain Tranchen vegan</t>
+          <t>Naturaplan Bio Nüsslisalat</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-tranchen-vegan/p/6974165</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuesslisalat/p/5756805</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E505" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>4.27/100g</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -35251,7 +35251,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -35261,56 +35261,60 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>The Green Mountain Tranchen vegan 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N505" t="inlineStr"/>
+          <t>Naturaplan Bio Nüsslisalat 13% Aktion 6.40 Schweizer Franken statt 7.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>6964537</t>
+          <t>6974165</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Yolo Nuggets im Teig</t>
+          <t>The Green Mountain Tranchen vegan</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-nuggets-im-teig/p/6964537</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-tranchen-vegan/p/6974165</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -35320,7 +35324,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -35335,55 +35339,51 @@
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>Yolo Nuggets im Teig 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N506" t="inlineStr">
-        <is>
-          <t>['frozen']</t>
-        </is>
-      </c>
+          <t>The Green Mountain Tranchen vegan 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>3062466</t>
+          <t>6964537</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g</t>
+          <t>Yolo Nuggets im Teig</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/del-maitre-sauerkraut-garniert/p/3062466</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-nuggets-im-teig/p/6964537</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>Del Maitre</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>15.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -35393,7 +35393,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -35403,60 +35403,60 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>Del Maitre Sauerkraut garniert 800g 20% Aktion 15.60 Schweizer Franken statt 19.60 Schweizer Franken</t>
+          <t>Yolo Nuggets im Teig 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['frozen']</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>6987208</t>
+          <t>3062466</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>The Green Mountain Plantbased Pfefferfilet</t>
+          <t>Del Maitre Sauerkraut garniert 800g</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plantbased-pfefferfilet/p/6987208</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/del-maitre-sauerkraut-garniert/p/3062466</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E508" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Del Maitre</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>15.60</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>4.48/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -35466,7 +35466,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -35476,12 +35476,12 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>The Green Mountain Plantbased Pfefferfilet 8.95 Schweizer Franken</t>
+          <t>Del Maitre Sauerkraut garniert 800g 20% Aktion 15.60 Schweizer Franken statt 19.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N508" t="inlineStr">
@@ -35491,248 +35491,248 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>6293683</t>
+          <t>6987208</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück</t>
+          <t>The Green Mountain Plantbased Pfefferfilet</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plantbased-pfefferfilet/p/6987208</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E509" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F509" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>The GREEN MOUNTAIN</t>
+        </is>
+      </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>1.80/1ST</t>
+          <t>4.48/100g</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N509" t="inlineStr"/>
+          <t>The Green Mountain Plantbased Pfefferfilet 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>3090320</t>
+          <t>6293683</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Mandarinen ca. 1kg</t>
+          <t>Artischocke 1 Stück</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/mandarinen-ca/p/3090320</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>2.95/1kg</t>
+          <t>1.80/1ST</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>Mandarinen ca. 1kg 2.95 Schweizer Franken</t>
+          <t>Artischocke 1 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>7027585</t>
+          <t>3090320</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>The Green Mountain Plant based Geschnetzeltes</t>
+          <t>Mandarinen ca. 1kg</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-geschnetzeltes/p/7027585</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/mandarinen-ca/p/3090320</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E511" t="n">
         <v>3.5</v>
       </c>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+      <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.95/1kg</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>The Green Mountain Plant based Geschnetzeltes 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N511" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mandarinen ca. 1kg 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>5756805</t>
+          <t>7027585</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüsslisalat</t>
+          <t>The Green Mountain Plant based Geschnetzeltes</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuesslisalat/p/5756805</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-geschnetzeltes/p/7027585</t>
         </is>
       </c>
       <c r="D512" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E512" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>4.27/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -35742,7 +35742,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -35752,12 +35752,12 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüsslisalat 13% Aktion 6.40 Schweizer Franken statt 7.40 Schweizer Franken</t>
+          <t>The Green Mountain Plant based Geschnetzeltes 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N512" t="inlineStr">
@@ -35767,7 +35767,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -35838,7 +35838,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -35911,7 +35911,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -35984,7 +35984,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36049,7 +36049,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36122,7 +36122,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36191,7 +36191,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36264,7 +36264,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36337,7 +36337,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36408,7 +36408,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36481,7 +36481,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36554,7 +36554,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36625,7 +36625,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36676,7 +36676,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36749,7 +36749,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36814,7 +36814,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36887,7 +36887,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -36960,7 +36960,7 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -37029,7 +37029,7 @@
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -37096,7 +37096,7 @@
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -37163,7 +37163,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -37232,87 +37232,93 @@
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>6540254</t>
+          <t>4416360</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Chicoree mix</t>
+          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/naturaplan-bio-blumenkohl-mix-farbig-4-stueck/p/4416360</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>8</v>
+      </c>
       <c r="E534" t="n">
-        <v>0</v>
-      </c>
-      <c r="F534" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>7.95/1ST</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese']</t>
         </is>
       </c>
       <c r="M534" t="inlineStr">
         <is>
-          <t>Chicoree mix 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>6878718</t>
+          <t>6540254</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Fisch vom Feld Filees paniert</t>
+          <t>Chicoree mix</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/fisch-vom-feld-filees-paniert/p/6878718</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
@@ -37322,12 +37328,12 @@
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -37337,7 +37343,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -37347,50 +37353,42 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M535" t="inlineStr">
         <is>
-          <t>Fisch vom Feld Filees paniert 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N535" t="inlineStr">
-        <is>
-          <t>['frozen', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Chicoree mix 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>7019646</t>
+          <t>6878718</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Lotao Bio veggie balls</t>
+          <t>Fisch vom Feld Filees paniert</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/lotao-bio-veggie-balls/p/7019646</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/fisch-vom-feld-filees-paniert/p/6878718</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="n">
         <v>0</v>
       </c>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>Lotao</t>
-        </is>
-      </c>
+      <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
           <t>4.95</t>
@@ -37398,7 +37396,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -37408,7 +37406,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -37423,41 +37421,43 @@
       </c>
       <c r="M536" t="inlineStr">
         <is>
-          <t>Lotao Bio veggie balls 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N536" t="inlineStr"/>
+          <t>Fisch vom Feld Filees paniert 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>['frozen', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>6558101</t>
+          <t>7019646</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>nu3 Bio Jackfruit Burger 180G</t>
+          <t>Lotao Bio veggie balls</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/nu3-bio-jackfruit-burger-180g/p/6558101</t>
-        </is>
-      </c>
-      <c r="D537" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/lotao-bio-veggie-balls/p/7019646</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
       <c r="E537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>nu3</t>
+          <t>Lotao</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -37467,7 +37467,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -37492,55 +37492,51 @@
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>nu3 Bio Jackfruit Burger 180G 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N537" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Lotao Bio veggie balls 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>6877144</t>
+          <t>6558101</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Karma Lentil &amp;amp; Spinach Patties</t>
+          <t>nu3 Bio Jackfruit Burger 180G</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/karma-lentil-spinach-patties/p/6877144</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/nu3-bio-jackfruit-burger-180g/p/6558101</t>
         </is>
       </c>
       <c r="D538" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E538" t="n">
         <v>2</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>nu3</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -37550,7 +37546,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -37565,45 +37561,45 @@
       </c>
       <c r="M538" t="inlineStr">
         <is>
-          <t>Karma Lentil &amp;amp; Spinach Patties 5.95 Schweizer Franken</t>
+          <t>nu3 Bio Jackfruit Burger 180G 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>6996620</t>
+          <t>6704473</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Naturli Mince</t>
+          <t>Yolo Filets</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/naturli-mince/p/6996620</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-filets/p/6704473</t>
         </is>
       </c>
       <c r="D539" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E539" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Naturli</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -37613,7 +37609,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -37623,7 +37619,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -37638,51 +37634,55 @@
       </c>
       <c r="M539" t="inlineStr">
         <is>
-          <t>Naturli Mince 5.95 Schweizer Franken</t>
+          <t>Yolo Filets 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>3091129</t>
+          <t>6877144</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Mangostane ca. 200g</t>
+          <t>Karma Lentil &amp;amp; Spinach Patties</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/mangostane-ca/p/3091129</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/karma-lentil-spinach-patties/p/6877144</t>
         </is>
       </c>
       <c r="D540" t="n">
         <v>2</v>
       </c>
       <c r="E540" t="n">
-        <v>5</v>
-      </c>
-      <c r="F540" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -37692,7 +37692,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -37702,12 +37702,12 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M540" t="inlineStr">
         <is>
-          <t>Mangostane ca. 200g 5.80 Schweizer Franken</t>
+          <t>Karma Lentil &amp;amp; Spinach Patties 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N540" t="inlineStr">
@@ -37717,110 +37717,114 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>3582348</t>
+          <t>6996620</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück</t>
+          <t>Naturli Mince</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/mini-artischocken-4-stueck/p/3582348</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/naturli-mince/p/6996620</t>
         </is>
       </c>
       <c r="D541" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
       </c>
-      <c r="F541" t="inlineStr"/>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>Naturli</t>
+        </is>
+      </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M541" t="inlineStr">
         <is>
-          <t>Mini Artischocken 4 Stück 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N541" t="inlineStr"/>
+          <t>Naturli Mince 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>7069723</t>
+          <t>3091129</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Wild Foods Dry Age</t>
+          <t>Mangostane ca. 200g</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/wild-foods-dry-age/p/7069723</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/mangostane-ca/p/3091129</t>
         </is>
       </c>
       <c r="D542" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E542" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>WILD FOODS</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>12.44/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -37830,7 +37834,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -37840,12 +37844,12 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M542" t="inlineStr">
         <is>
-          <t>Wild Foods Dry Age 9.95 Schweizer Franken</t>
+          <t>Mangostane ca. 200g 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N542" t="inlineStr">
@@ -37855,118 +37859,110 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>6868671</t>
+          <t>3582348</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Yolo Crunchies</t>
+          <t>Mini Artischocken 4 Stück</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-crunchies/p/6868671</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/mini-artischocken-4-stueck/p/3582348</t>
         </is>
       </c>
       <c r="D543" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E543" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N543" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mini Artischocken 4 Stück 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>6704473</t>
+          <t>7069723</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Yolo Filets</t>
+          <t>Wild Foods Dry Age</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-filets/p/6704473</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/wild-foods-dry-age/p/7069723</t>
         </is>
       </c>
       <c r="D544" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E544" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>WILD FOODS</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>12.44/100g</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -37976,7 +37972,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -37991,53 +37987,55 @@
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>Yolo Filets 5.95 Schweizer Franken</t>
+          <t>Wild Foods Dry Age 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>7022182</t>
+          <t>6868671</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Lotao Bio Veggie Hackbällchen</t>
+          <t>Yolo Crunchies</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/lotao-bio-veggie-hackbaellchen/p/7022182</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-crunchies/p/6868671</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>10</v>
+      </c>
       <c r="E545" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Lotao</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>3.95/100g</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -38047,7 +38045,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -38062,82 +38060,84 @@
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>Lotao Bio Veggie Hackbällchen 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N545" t="inlineStr"/>
+          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>4416360</t>
+          <t>7022182</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück</t>
+          <t>Lotao Bio Veggie Hackbällchen</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/naturaplan-bio-blumenkohl-mix-farbig-4-stueck/p/4416360</t>
-        </is>
-      </c>
-      <c r="D546" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/lotao-bio-veggie-hackbaellchen/p/7022182</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
       <c r="E546" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lotao</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>7.95/1ST</t>
+          <t>3.95/100g</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M546" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl Mix farbig 4 Stück 7.95 Schweizer Franken</t>
+          <t>Lotao Bio Veggie Hackbällchen 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38206,7 +38206,7 @@
       <c r="N547" t="inlineStr"/>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38271,7 +38271,7 @@
       <c r="N548" t="inlineStr"/>
       <c r="O548" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38334,7 +38334,7 @@
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38401,7 +38401,7 @@
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38474,7 +38474,7 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38547,7 +38547,7 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38616,7 +38616,7 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38681,7 +38681,7 @@
       <c r="N554" t="inlineStr"/>
       <c r="O554" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38752,7 +38752,7 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -38821,45 +38821,41 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>3433978</t>
+          <t>6754922</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Vanini Marrons glacés 12 Stück</t>
+          <t>Snack Jungchicoree</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/schokolade-suessigkeiten/vanini-marrons-glaces-12-stueck/p/3433978</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/snack-jungchicoree/p/6754922</t>
         </is>
       </c>
       <c r="D557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E557" t="n">
-        <v>1</v>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>Vanini</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>8.31/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -38869,7 +38865,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -38879,52 +38875,56 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'schokolade-suessigkeiten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M557" t="inlineStr">
         <is>
-          <t>Vanini Marrons glacés 12 Stück 17.95 Schweizer Franken</t>
+          <t>Snack Jungchicoree 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>6754922</t>
+          <t>3433978</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree</t>
+          <t>Vanini Marrons glacés 12 Stück</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/snack-jungchicoree/p/6754922</t>
+          <t>/de/lebensmittel/suesses-snacks/schokolade-suessigkeiten/vanini-marrons-glaces-12-stueck/p/3433978</t>
         </is>
       </c>
       <c r="D558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>3</v>
-      </c>
-      <c r="F558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Vanini</t>
+        </is>
+      </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>8.31/100g</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -38934,7 +38934,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -38944,65 +38944,67 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'schokolade-suessigkeiten']</t>
         </is>
       </c>
       <c r="M558" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree 2.95 Schweizer Franken</t>
+          <t>Vanini Marrons glacés 12 Stück 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N558" t="inlineStr"/>
       <c r="O558" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>3091121</t>
+          <t>3091198</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Rambutan ca. 500g</t>
+          <t>Carambole 1 Stück</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/rambutan-ca/p/3091121</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/carambole-1-stueck/p/3091198</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>6</v>
+      </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>2.60/100g</t>
+          <t>3.40/1ST</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -39012,7 +39014,7 @@
       </c>
       <c r="M559" t="inlineStr">
         <is>
-          <t>Rambutan ca. 500g 13.00 Schweizer Franken</t>
+          <t>Carambole 1 Stück 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N559" t="inlineStr">
@@ -39022,45 +39024,39 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>6739951</t>
+          <t>3091121</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces</t>
+          <t>Rambutan ca. 500g</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-marinated-pieces/p/6739951</t>
-        </is>
-      </c>
-      <c r="D560" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/rambutan-ca/p/3091121</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr"/>
       <c r="E560" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>2.60/100g</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -39070,7 +39066,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -39080,58 +39076,60 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
+          <t>Rambutan ca. 500g 13.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>7065419</t>
+          <t>6739951</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
+          <t>Yolo marinated Pieces</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-marinated-pieces/p/6739951</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>6</v>
+      </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -39141,7 +39139,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -39151,91 +39149,93 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen - Online kein Bestand 5.50 Schweizer Franken</t>
+          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>3091198</t>
+          <t>7065419</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Carambole 1 Stück</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/carambole-1-stueck/p/3091198</t>
-        </is>
-      </c>
-      <c r="D562" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F562" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>3.40/1ST</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="M562" t="inlineStr">
         <is>
-          <t>Carambole 1 Stück 3.40 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen - Online kein Bestand 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
@@ -39375,7 +39375,7 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>2022-12-09 12:58:30</t>
+          <t>2022-12-09 14:54:54</t>
         </is>
       </c>
     </row>
